--- a/src/features/weighted_attempts_logistic_coefficients.xlsx
+++ b/src/features/weighted_attempts_logistic_coefficients.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XHK\Desktop\thesis_code\events_analysis\src\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{088BAE43-ABC5-48D5-9E74-65BCFC168B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B7E77-2B3B-4F67-8EE3-599CDA199478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted_attempts_logistic_ (4)" sheetId="4" r:id="rId1"/>
@@ -28,21 +28,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - weighted_attempts_logistic_coef" description="Connection to the 'weighted_attempts_logistic_coef' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - weighted_attempts_logistic_coef" description="Connection to the 'weighted_attempts_logistic_coef' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=weighted_attempts_logistic_coef;Extended Properties=&quot;&quot;" command="SELECT * FROM [weighted_attempts_logistic_coef]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - weighted_attempts_logistic_coefficients" description="Connection to the 'weighted_attempts_logistic_coefficients' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - weighted_attempts_logistic_coefficients" description="Connection to the 'weighted_attempts_logistic_coefficients' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=weighted_attempts_logistic_coefficients;Extended Properties=&quot;&quot;" command="SELECT * FROM [weighted_attempts_logistic_coefficients]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Query - weighted_attempts_logistic_coefficients (2)" description="Connection to the 'weighted_attempts_logistic_coefficients (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - weighted_attempts_logistic_coefficients (2)" description="Connection to the 'weighted_attempts_logistic_coefficients (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;weighted_attempts_logistic_coefficients (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [weighted_attempts_logistic_coefficients (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="300">
   <si>
     <t>,features,mean_coeff,se_coeff,95ci_se_coeff,coeff_95ci_LL,coeff_95ci_UL,odds_mean,95ci_odds_LL,95ci_odds_UL</t>
   </si>
@@ -878,23 +878,77 @@
     <t>side_Away</t>
   </si>
   <si>
-    <t>centre_of_the_box</t>
-  </si>
-  <si>
-    <t>right_foot</t>
-  </si>
-  <si>
-    <t>assist_method_corner</t>
-  </si>
-  <si>
     <t>situation_corner</t>
+  </si>
+  <si>
+    <t>loc_Difficult angle+ long range</t>
+  </si>
+  <si>
+    <t>loc_Difficult angle left</t>
+  </si>
+  <si>
+    <t>loc_Difficult angle right</t>
+  </si>
+  <si>
+    <t>loc_Left side 6yrd box</t>
+  </si>
+  <si>
+    <t>loc_more 35yrds</t>
+  </si>
+  <si>
+    <t>loc_More 40yrds</t>
+  </si>
+  <si>
+    <t>loc_Not record</t>
+  </si>
+  <si>
+    <t>loc_Outside box</t>
+  </si>
+  <si>
+    <t>loc_Penalty spot</t>
+  </si>
+  <si>
+    <t>loc_Right side box</t>
+  </si>
+  <si>
+    <t>loc_Left side box</t>
+  </si>
+  <si>
+    <t>loc_Right 6yrd box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loc_Very close </t>
+  </si>
+  <si>
+    <t>asst_meth_Headed pass</t>
+  </si>
+  <si>
+    <t>asst_meth_None</t>
+  </si>
+  <si>
+    <t>asst_meth_Pass</t>
+  </si>
+  <si>
+    <t>asst_meth_Through ball</t>
+  </si>
+  <si>
+    <t>asst_meth_corner</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>centre of box</t>
+  </si>
+  <si>
+    <t>reference categry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1079,74 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1371,9 +1493,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1473,7 +1607,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12" unboundColumnsRight="1">
     <queryTableFields count="11">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1493,7 +1627,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1503,7 +1637,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1522,49 +1656,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="weighted_attempts_logistic_coefficients__2" displayName="weighted_attempts_logistic_coefficients__2" ref="A1:K27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="weighted_attempts_logistic_coefficients__2" displayName="weighted_attempts_logistic_coefficients__2" ref="A1:K27" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" uniqueName="11" name="reference_category" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="reference_category" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="weighted_attempts_logistic_coef" displayName="weighted_attempts_logistic_coef" ref="A1:A27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="weighted_attempts_logistic_coef" displayName="weighted_attempts_logistic_coef" ref="A1:A27" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:A27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="weighted_attempts_logistic_coefficients" displayName="weighted_attempts_logistic_coefficients" ref="A1:J26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="weighted_attempts_logistic_coefficients" displayName="weighted_attempts_logistic_coefficients" ref="A1:J26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="features" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" uniqueName="3" name="mean_coeff" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="se_coeff" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="95ci_se_coeff" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="coeff_95ci_LL" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="coeff_95ci_UL" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="odds_mean" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="95ci_odds_LL" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="95ci_odds_UL" queryTableFieldId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="features" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="mean_coeff" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="se_coeff" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="95ci_se_coeff" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="coeff_95ci_LL" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" uniqueName="7" name="coeff_95ci_UL" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" uniqueName="8" name="odds_mean" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" uniqueName="9" name="95ci_odds_LL" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" uniqueName="10" name="95ci_odds_UL" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1866,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="B2" sqref="B2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +2021,7 @@
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1922,884 +2056,901 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2955,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3815,7 +3966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
